--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_YORK_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_YORK_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1290"/>
+  <dimension ref="A1:D1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C26">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C104">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C123">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C124">
@@ -2083,12 +2083,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C129">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C133">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C145">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C148">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C155">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C161">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C180">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C191">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C199">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C207">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C216">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C219">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C222">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C232">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C235">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C239">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C244">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C247">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C253">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C259">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C264">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C276">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C279">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C292">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C298">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C302">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C314">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C320">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C321">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C331">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C334">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C337">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C349">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C351">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C356">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C362">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C364">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C371">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C378">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C380">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C388">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C395">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C400">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C408">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C419">
@@ -6629,7 +6629,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C476">
@@ -6772,7 +6772,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C487">
@@ -6850,7 +6850,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C493">
@@ -6876,7 +6876,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C495">
@@ -6980,7 +6980,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C503">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C505">
@@ -7185,7 +7185,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C518">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C523">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C527">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C530">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C533">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C536">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C546">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C553">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C566">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C584">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C617">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C654">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C672">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C685">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C702">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C707">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C721">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C764">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C776">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C778">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C780">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C783">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C789">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C791">
@@ -11134,7 +11134,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C821">
@@ -11264,7 +11264,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C831">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C845">
@@ -11459,7 +11459,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C846">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C862">
@@ -11680,7 +11680,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C863">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C867">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C869">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C873">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C884">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C885">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C898">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C908">
@@ -12460,7 +12460,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C923">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C927">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C928">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C935">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C943">
@@ -12733,7 +12733,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C944">
@@ -12746,7 +12746,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C945">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C951">
@@ -12850,7 +12850,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C953">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C954">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C959">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C970">
@@ -13097,7 +13097,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C972">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C976">
@@ -13227,7 +13227,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C982">
@@ -13318,7 +13318,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C989">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C997">
@@ -13453,7 +13453,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C999">
@@ -13492,7 +13492,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1002">
@@ -13531,7 +13531,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1005">
@@ -13619,7 +13619,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1011">
@@ -13632,7 +13632,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1012">
@@ -13749,7 +13749,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1021">
@@ -13827,7 +13827,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1027">
@@ -13840,7 +13840,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1028">
@@ -14284,7 +14284,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1061">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1082">
@@ -14593,7 +14593,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1084">
@@ -14658,7 +14658,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1089">
@@ -14749,7 +14749,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1096">
@@ -14788,7 +14788,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1099">
@@ -14801,7 +14801,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1100">
@@ -14814,7 +14814,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1101">
@@ -14853,7 +14853,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1104">
@@ -14931,7 +14931,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1110">
@@ -14944,7 +14944,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1111">
@@ -15061,7 +15061,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1120">
@@ -15100,7 +15100,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1123">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1140">
@@ -15365,7 +15365,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1143">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1150">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1153">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1160">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1169">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1181">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1182">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1183">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1187">
@@ -15950,7 +15950,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1188">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1189">
@@ -16067,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1197">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1202">
@@ -16145,7 +16145,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1203">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1206">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1210">
@@ -16314,7 +16314,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1216">
@@ -16327,7 +16327,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1217">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1220">
@@ -16457,7 +16457,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1227">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1230">
@@ -16535,7 +16535,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1233">
@@ -16873,7 +16873,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1259">
@@ -16977,7 +16977,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1267">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1268">
@@ -17216,41 +17216,6 @@
       </c>
       <c r="D1284">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
